--- a/BackTest/2020-01-20 BackTest BCH.xlsx
+++ b/BackTest/2020-01-20 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11704,7 +11704,7 @@
         <v>-1457.191085190002</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-1488.209837760002</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-1533.910237760002</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1533.910237760002</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1533.910237760002</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1536.681837760002</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-370.7181473100017</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-567.7955473100017</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-1051.480810570002</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-1130.993010570002</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-990.9529105700019</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-1004.791010570002</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-864.607610570002</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-695.131429450002</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-673.5532294500019</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-437.5990294500019</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-602.8628286000019</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-761.9804635100019</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-1152.841506020002</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1037.863419090002</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1189.570953780002</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1312.374624910002</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1437.193124910002</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-1359.134324910002</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-1414.192299750002</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1549.624239700002</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-1683.642439700002</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1633.245649430002</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-1587.388349430002</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1576.907949430002</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-1576.907949430002</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-1465.299206100002</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-1288.815879830002</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-790.9822773400016</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-802.5292773400016</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-802.5292773400016</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-843.2091773400016</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-796.2831773400017</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-640.5159773400017</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-563.7806773400016</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-489.4775773400016</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-356.5200773400016</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>176.1329226599984</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>384.5724226599984</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>337.8382226599984</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>442.0426074999984</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>636.4708504399983</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>412.2143169499983</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>601.5245624299982</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>927.6335050999983</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>623.3645050999983</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>545.7010518699983</v>
       </c>
       <c r="H726" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>467.3159518699983</v>
       </c>
       <c r="H727" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>626.4744518699983</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>569.0497683999984</v>
       </c>
       <c r="H729" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>493.5729683999983</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>447.4037683999983</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>416.5013683999983</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>507.8981683999983</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>667.8963683999983</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>474.0957683999983</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>459.7129683999983</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>437.0445237199983</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>450.4693237199983</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>565.7110242099983</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>467.1477242099983</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>224.2892242099983</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-40.94067665000173</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>75.75932334999827</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>143.6814233499983</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>145.0763233499983</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>85.65202334999829</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-312.3337766500017</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-303.6928766500017</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-303.6928766500017</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-287.2747479000017</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-268.4219479000017</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-272.9977479000017</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-304.0569479000017</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-292.6355479000017</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-299.4636479000017</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-320.3693479000017</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-358.1774479000018</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-396.3901479000018</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-396.3901479000018</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-386.2483479000018</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-403.2754479000018</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-386.3351479000018</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-378.1122479000018</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-315.2398479000018</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-339.0211479000018</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-339.0211479000018</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-336.4237479000018</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-344.1013479000018</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-339.0963479000018</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-339.0963479000018</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-361.4134479000018</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-356.8004479000018</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-355.8956479000017</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-382.7627479000017</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-343.7424479000017</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-307.9133479000017</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-314.9546479000017</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-354.0309479000017</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-352.2975479000017</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-352.2975479000017</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-354.3468479000017</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-378.0378479000017</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-390.1979479000017</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-447.8606479000017</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-429.4866479000017</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-537.2848479000016</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-410.4277479000016</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-416.2637479000016</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-430.3976479000016</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-373.2332479000016</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-373.2332479000016</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-385.4142479000016</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-298.9915479000016</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-325.2477479000016</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-338.4264479000016</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-615.2270479000015</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-574.8334479000015</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-570.1885479000015</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-537.9448479000015</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-537.3520479000015</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-551.6297479000015</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-638.1959479000014</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-681.6730479000014</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-738.3706479000014</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-723.7948479000014</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-774.5519479000014</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-966.8626479000014</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-877.9334479000014</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-881.0609479000015</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-817.3847479000015</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-878.7622479000015</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-881.9302479000015</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-836.8312757200015</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-848.9196757200015</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-905.1848757200015</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-1268.934475720002</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-1363.660375720001</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-1389.070675720001</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-1320.202575720002</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-1320.202575720002</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-1072.327916880002</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-1083.967416880002</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-1085.672716880002</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-1015.967364210002</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-1028.211864210002</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-975.189664210002</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-933.813564210002</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-955.7674076800021</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-934.8750076800021</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-912.5643076800021</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-830.5086076800021</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-807.4512335200021</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-845.3515335200021</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-810.0343637400022</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-826.2962939600021</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-559.9082939600021</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-630.9085939600021</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-649.1766939600021</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-696.2252939600021</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-696.2202939600021</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-693.2810939600021</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-688.925069680002</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-689.0630696800021</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-670.302143970002</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-671.8287439700021</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-678.4830439700021</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-688.4830439700021</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-686.9681439700021</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-686.9681439700021</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-695.1112439700021</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-623.8749439700021</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-621.816543970002</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-632.332143970002</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-632.332143970002</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-632.332143970002</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-654.291943970002</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-654.291943970002</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-654.291943970002</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-640.2802439700019</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-666.304943970002</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-674.4487439700021</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-662.259643970002</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-660.519243970002</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-661.2150439700019</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-633.110343970002</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-695.485643970002</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-692.564943970002</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-673.885043970002</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-673.885043970002</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-681.821643970002</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-665.481043970002</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-661.155043970002</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-675.2839439700019</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-684.0078439700019</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>-680.0078439700019</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-680.0078439700019</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-680.0078439700019</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-638.6663439700019</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>-648.5353439700019</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>-666.604821880002</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-669.832621880002</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-685.7281218800019</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-685.7281218800019</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-673.7281218800019</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-673.9777224700019</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-674.2273224700019</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-666.7428224700019</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-680.3662224700018</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>-684.4005224700019</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>-697.8005224700019</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>-701.3795224700018</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>-706.0225224700018</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>-706.0225224700018</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>-696.3383432300018</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-649.4759432300018</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-640.8747432300017</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-624.5327432300018</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-643.0821432300017</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-643.0821432300017</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-649.1664432300017</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-657.9708432300017</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-665.8560432300018</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-663.8023432300017</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-674.8082432300017</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-656.0992432300018</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-698.6347432300017</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-712.0703432300018</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-760.9010432300017</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>-777.9100432300017</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-821.2456432300017</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-821.2456432300017</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-793.4462543300017</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-793.4462543300017</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35497,7 +35497,7 @@
         <v>-1944.602942100002</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -35530,7 +35530,7 @@
         <v>-2349.867042100002</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35563,7 +35563,7 @@
         <v>-1646.343142100002</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -35596,7 +35596,7 @@
         <v>-1867.095842100002</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38368,11 +38368,17 @@
         <v>-3493.971879730001</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>373100</v>
+      </c>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38401,11 +38407,17 @@
         <v>-3551.680979730001</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>372800</v>
+      </c>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +38446,17 @@
         <v>-3303.558033110001</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>371100</v>
+      </c>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38467,11 +38485,17 @@
         <v>-3374.270333110001</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>372100</v>
+      </c>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38500,11 +38524,17 @@
         <v>-3292.383233110001</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>370800</v>
+      </c>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38533,11 +38563,17 @@
         <v>-3169.857733110001</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>370900</v>
+      </c>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38566,11 +38602,17 @@
         <v>-3184.282633110001</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>371000</v>
+      </c>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38599,11 +38641,17 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>370000</v>
+      </c>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38632,11 +38680,17 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>371500</v>
+      </c>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38665,11 +38719,17 @@
         <v>-2837.863716950001</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>371500</v>
+      </c>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38702,7 +38762,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38735,7 +38799,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38768,7 +38836,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38801,7 +38873,11 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38834,7 +38910,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38867,7 +38947,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38900,7 +38984,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38933,7 +39021,11 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -38966,7 +39058,11 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -38999,7 +39095,11 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39032,7 +39132,11 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39065,7 +39169,11 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39098,7 +39206,11 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39131,7 +39243,11 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39164,7 +39280,11 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39197,7 +39317,11 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39230,7 +39354,11 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39263,7 +39391,11 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39296,7 +39428,11 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39329,7 +39465,11 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39362,7 +39502,11 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39395,7 +39539,11 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39428,7 +39576,11 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39461,7 +39613,11 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39494,7 +39650,11 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39527,7 +39687,11 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39560,7 +39724,11 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39593,7 +39761,11 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39626,7 +39798,11 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39659,7 +39835,11 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39692,7 +39872,11 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39725,7 +39909,11 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39758,7 +39946,11 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -39791,7 +39983,11 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -39824,7 +40020,11 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -39857,7 +40057,11 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -39890,7 +40094,11 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -39923,7 +40131,11 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -39956,7 +40168,11 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -39989,7 +40205,11 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40022,7 +40242,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40055,7 +40279,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40084,11 +40312,17 @@
         <v>-3241.88130305</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>370000</v>
+      </c>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40117,15 +40351,13 @@
         <v>-3162.702603050001</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>371300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1204" t="n">
@@ -40193,11 +40425,9 @@
         <v>-3239.891631010001</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>371900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -40232,7 +40462,7 @@
         <v>-3436.292931010001</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1207" t="n">
         <v>370400</v>
@@ -40271,7 +40501,7 @@
         <v>-3489.788047270001</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1208" t="n">
         <v>368600</v>
@@ -40310,7 +40540,7 @@
         <v>-3922.921747270001</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1209" t="n">
         <v>368400</v>
@@ -40349,9 +40579,11 @@
         <v>-3875.968347270001</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>367400</v>
+      </c>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -40386,9 +40618,11 @@
         <v>-3911.485147270001</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>369100</v>
+      </c>
       <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
@@ -40423,7 +40657,7 @@
         <v>-3826.526447270001</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1212" t="n">
         <v>368400</v>
@@ -40462,7 +40696,7 @@
         <v>-3728.46364727</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1213" t="n">
         <v>369600</v>
@@ -40501,7 +40735,7 @@
         <v>-3990.37351607</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1214" t="n">
         <v>372000</v>
@@ -40540,7 +40774,7 @@
         <v>-3955.68511607</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1215" t="n">
         <v>371200</v>
@@ -40579,7 +40813,7 @@
         <v>-3952.68061607</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1216" t="n">
         <v>371300</v>
@@ -40618,7 +40852,7 @@
         <v>-3956.68251607</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1217" t="n">
         <v>371600</v>
@@ -40657,7 +40891,7 @@
         <v>-3946.66251607</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1218" t="n">
         <v>371000</v>
@@ -40696,7 +40930,7 @@
         <v>-3834.95401607</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1219" t="n">
         <v>371600</v>
@@ -40735,7 +40969,7 @@
         <v>-3643.363622880001</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1220" t="n">
         <v>373000</v>
@@ -40774,7 +41008,7 @@
         <v>-3649.79592288</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1221" t="n">
         <v>373800</v>
@@ -40813,7 +41047,7 @@
         <v>-3598.186222880001</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1222" t="n">
         <v>373100</v>
@@ -40852,9 +41086,11 @@
         <v>-3450.017922880001</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>374300</v>
+      </c>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
@@ -40926,9 +41162,11 @@
         <v>-3275.20912288</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>376100</v>
+      </c>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
@@ -42458,6 +42696,6 @@
       <c r="M1266" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BCH.xlsx
+++ b/BackTest/2020-01-20 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2959,7 +2959,7 @@
         <v>-2348.91598884</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2493.48328884</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2451.0753497</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2561.7048497</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2452.1166497</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2591.3050497</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2446.7753497</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2439.79575339</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2423.48179268</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2395.08109268</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2491.932892679999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2478.54039268</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2479.694992679999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2163.19579268</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-2184.61979268</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2176.60769268</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2174.67108751</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2193.09194765</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2212.50309542</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2185.780795419999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2213.083595419999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1941.390186119999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1933.849586119999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2372.629183739999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2359.129283739999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2346.453683739999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2346.461379989999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2356.879879989999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2368.060479989999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2155.313616049999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2118.81371605</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2031.90131605</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1901.45632481</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1914.65802481</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2087.58211505</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2085.58211505</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2097.85294808</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2098.02174808</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2096.99704808</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2095.76084808</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2087.02824808</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-1449.343319520002</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1027.403861170002</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-787.9357611700018</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1264.833126350002</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1453.384328870002</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1232.277128870002</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-994.4523276200018</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1165.620594740002</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-965.8693947400017</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-614.7571473100016</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-370.7181473100017</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-567.7955473100017</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-763.6926814000017</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-938.0633807700017</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-779.5789805300017</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-695.131429450002</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-437.5990294500019</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-602.8628286000019</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-536.6288085700019</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-668.7417085700018</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-761.9804635100019</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-1152.841506020002</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-1037.863419090002</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-1189.570953780002</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-1312.374624910002</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-1437.193124910002</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-1359.134324910002</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-1414.192299750002</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-1549.624239700002</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-1683.642439700002</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-1633.245649430002</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-1587.388349430002</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-1576.907949430002</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-1576.907949430002</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-1465.299206100002</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>636.4708504399983</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>412.2143169499983</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>601.5245624299982</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>927.6335050999983</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>623.3645050999983</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>545.7010518699983</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>467.3159518699983</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>626.4744518699983</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>569.0497683999984</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>493.5729683999983</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>447.4037683999983</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>416.5013683999983</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>507.8981683999983</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>667.8963683999983</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>474.0957683999983</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>459.7129683999983</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>437.0445237199983</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>450.4693237199983</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>565.7110242099983</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>467.1477242099983</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>224.2892242099983</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-40.94067665000173</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>75.75932334999827</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>143.6814233499983</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>145.0763233499983</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>85.65202334999829</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-312.3337766500017</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-303.6928766500017</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-303.6928766500017</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-287.2747479000017</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-268.4219479000017</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-272.9977479000017</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-304.0569479000017</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-292.6355479000017</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-299.4636479000017</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-320.3693479000017</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-358.1774479000018</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-396.3901479000018</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-396.3901479000018</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-386.2483479000018</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-403.2754479000018</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-386.3351479000018</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-378.1122479000018</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-315.2398479000018</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-339.0211479000018</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-339.0211479000018</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-336.4237479000018</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-344.1013479000018</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-339.0963479000018</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-339.0963479000018</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-361.4134479000018</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-356.8004479000018</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-355.8956479000017</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-382.7627479000017</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-343.7424479000017</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-307.9133479000017</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-314.9546479000017</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-354.0309479000017</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-352.2975479000017</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-352.2975479000017</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-354.3468479000017</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-378.0378479000017</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-390.1979479000017</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-447.8606479000017</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-429.4866479000017</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-537.2848479000016</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-410.4277479000016</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-416.2637479000016</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-430.3976479000016</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-373.2332479000016</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-373.2332479000016</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-385.4142479000016</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-298.9915479000016</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-325.2477479000016</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-338.4264479000016</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-615.2270479000015</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-574.8334479000015</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-570.1885479000015</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-537.9448479000015</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-537.3520479000015</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-551.6297479000015</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-638.1959479000014</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-681.6730479000014</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-738.3706479000014</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-723.7948479000014</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-774.5519479000014</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-966.8626479000014</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-877.9334479000014</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-881.0609479000015</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-817.3847479000015</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-878.7622479000015</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-881.9302479000015</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-836.8312757200015</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-848.9196757200015</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-905.1848757200015</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-1268.934475720002</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-1363.660375720001</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-1389.070675720001</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-1320.202575720002</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-1320.202575720002</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-1072.327916880002</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-1083.967416880002</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-1085.672716880002</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-1015.967364210002</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-1028.211864210002</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-975.189664210002</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-933.813564210002</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-955.7674076800021</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-934.8750076800021</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-912.5643076800021</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-830.5086076800021</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-807.4512335200021</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-845.3515335200021</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-810.0343637400022</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-826.2962939600021</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-559.9082939600021</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-630.9085939600021</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-649.1766939600021</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-696.2252939600021</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-696.2202939600021</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-693.2810939600021</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-688.925069680002</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-689.0630696800021</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-670.302143970002</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-671.8287439700021</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-678.4830439700021</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-688.4830439700021</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-686.9681439700021</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-686.9681439700021</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-695.1112439700021</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-623.8749439700021</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-621.816543970002</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-632.332143970002</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-632.332143970002</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-632.332143970002</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-654.291943970002</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-654.291943970002</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-654.291943970002</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-640.2802439700019</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-666.304943970002</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-674.4487439700021</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-662.259643970002</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-660.519243970002</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-661.2150439700019</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-633.110343970002</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-695.485643970002</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-692.564943970002</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-673.885043970002</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-673.885043970002</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-681.821643970002</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-665.481043970002</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-661.155043970002</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-675.286443970002</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-675.2839439700019</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-684.0078439700019</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>-680.0078439700019</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-680.0078439700019</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-680.0078439700019</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-638.6663439700019</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>-648.5353439700019</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>-666.604821880002</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-669.832621880002</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-685.7281218800019</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-685.7281218800019</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-673.7281218800019</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-673.9777224700019</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-674.2273224700019</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-666.7428224700019</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-680.3662224700018</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>-684.4005224700019</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>-697.8005224700019</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>-701.3795224700018</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>-706.0225224700018</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>-706.0225224700018</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>-696.3383432300018</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-649.4759432300018</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-640.8747432300017</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-624.5327432300018</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-643.0821432300017</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-643.0821432300017</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-649.1664432300017</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-657.9708432300017</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-665.8560432300018</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-663.8023432300017</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-674.8082432300017</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-656.0992432300018</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-698.6347432300017</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-712.0703432300018</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-760.9010432300017</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>-777.9100432300017</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-821.2456432300017</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-821.2456432300017</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-793.4462543300017</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-793.4462543300017</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35497,7 +35497,7 @@
         <v>-1944.602942100002</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -35530,7 +35530,7 @@
         <v>-2349.867042100002</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35563,7 +35563,7 @@
         <v>-1646.343142100002</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -35596,7 +35596,7 @@
         <v>-1867.095842100002</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38368,17 +38368,11 @@
         <v>-3493.971879730001</v>
       </c>
       <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>373100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38407,17 +38401,11 @@
         <v>-3551.680979730001</v>
       </c>
       <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>372800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38446,17 +38434,11 @@
         <v>-3303.558033110001</v>
       </c>
       <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>371100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38485,17 +38467,11 @@
         <v>-3374.270333110001</v>
       </c>
       <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>372100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38524,17 +38500,11 @@
         <v>-3292.383233110001</v>
       </c>
       <c r="H1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>370800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38563,17 +38533,11 @@
         <v>-3169.857733110001</v>
       </c>
       <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>370900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38610,7 +38574,7 @@
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1157" t="n">
@@ -40275,9 +40239,11 @@
         <v>-3265.983003050001</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>370200</v>
+      </c>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40351,9 +40317,11 @@
         <v>-3162.702603050001</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>371300</v>
+      </c>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40388,9 +40356,11 @@
         <v>-3117.175331010001</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>371500</v>
+      </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40425,9 +40395,11 @@
         <v>-3239.891631010001</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>371900</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41008,11 +40980,9 @@
         <v>-3649.79592288</v>
       </c>
       <c r="H1221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1221" t="n">
-        <v>373800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41086,11 +41056,9 @@
         <v>-3450.017922880001</v>
       </c>
       <c r="H1223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>374300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41162,11 +41130,9 @@
         <v>-3275.20912288</v>
       </c>
       <c r="H1225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1225" t="n">
-        <v>376100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
@@ -42696,6 +42662,6 @@
       <c r="M1266" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BCH.xlsx
+++ b/BackTest/2020-01-20 BackTest BCH.xlsx
@@ -2959,7 +2959,7 @@
         <v>-2348.91598884</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2493.48328884</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2451.0753497</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2561.7048497</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2452.1166497</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2591.3050497</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2488.9834497</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2446.7753497</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2439.79575339</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2423.48179268</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2395.08109268</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2491.932892679999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2478.54039268</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2479.694992679999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2163.19579268</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-2184.61979268</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2176.60769268</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2174.67108751</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2193.09194765</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2212.50309542</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2196.39239542</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2185.780795419999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2201.729795419999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2213.083595419999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1941.390186119999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1933.849586119999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2380.819783739998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2393.420583739999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2372.629183739999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2359.129283739999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2346.453683739999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2346.461379989999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2356.879879989999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2368.060479989999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2155.313616049999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2118.81371605</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2031.90131605</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1901.45632481</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1914.65802481</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2087.58211505</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2085.58211505</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2097.85294808</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2098.02174808</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2096.99704808</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2095.76084808</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2087.02824808</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-1449.343319520002</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-1027.403861170002</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-787.9357611700018</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-1264.833126350002</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-1453.384328870002</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-1232.277128870002</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-994.4523276200018</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-1165.620594740002</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-965.8693947400017</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-614.7571473100016</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-370.7181473100017</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-567.7955473100017</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-763.6926814000017</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-938.0633807700017</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-779.5789805300017</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-695.131429450002</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-437.5990294500019</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-602.8628286000019</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-582.0619564000017</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-644.0463564000017</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-788.2890060200018</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>636.4708504399983</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>412.2143169499983</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>601.5245624299982</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>927.6335050999983</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>623.3645050999983</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>545.7010518699983</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>467.3159518699983</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>626.4744518699983</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>569.0497683999984</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>493.5729683999983</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>447.4037683999983</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>416.5013683999983</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>507.8981683999983</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>490.4635683999983</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>667.8963683999983</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>474.0957683999983</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>459.7129683999983</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>437.0445237199983</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>450.4693237199983</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>565.7110242099983</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>467.1477242099983</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>436.5182242099983</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>224.2892242099983</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-40.94067665000173</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>75.75932334999827</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>143.6814233499983</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>145.0763233499983</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>85.65202334999829</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-25.52947665000171</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-27.20667665000171</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -38566,17 +38566,11 @@
         <v>-3184.282633110001</v>
       </c>
       <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>371000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38605,17 +38599,11 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>370000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38644,17 +38632,11 @@
         <v>-3121.279233110001</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>371500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38683,17 +38665,11 @@
         <v>-2837.863716950001</v>
       </c>
       <c r="H1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>371500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38726,11 +38702,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38763,11 +38735,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38800,11 +38768,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38837,11 +38801,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38874,11 +38834,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38911,11 +38867,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38948,11 +38900,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38985,11 +38933,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39022,11 +38966,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39059,11 +38999,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39096,11 +39032,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39133,11 +39065,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39170,11 +39098,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39207,11 +39131,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39244,11 +39164,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39281,11 +39197,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39318,11 +39230,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39355,11 +39263,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39392,11 +39296,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39429,11 +39329,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39466,11 +39362,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39503,11 +39395,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39540,11 +39428,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39577,11 +39461,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39614,11 +39494,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39651,11 +39527,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39688,11 +39560,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39725,11 +39593,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39762,11 +39626,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39799,11 +39659,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39836,11 +39692,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39873,11 +39725,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39910,11 +39758,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -39947,11 +39791,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -39984,11 +39824,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40021,11 +39857,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40058,11 +39890,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40095,11 +39923,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40132,11 +39956,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40169,11 +39989,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40206,11 +40022,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40239,17 +40051,11 @@
         <v>-3265.983003050001</v>
       </c>
       <c r="H1202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>370200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40283,12 +40089,10 @@
       <c r="I1203" t="n">
         <v>370000</v>
       </c>
-      <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1203" t="n">
+        <v>370000</v>
+      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40322,10 +40126,12 @@
       <c r="I1204" t="n">
         <v>371300</v>
       </c>
-      <c r="J1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>370000</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1204" t="n">
@@ -40356,15 +40162,15 @@
         <v>-3117.175331010001</v>
       </c>
       <c r="H1205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>371500</v>
-      </c>
-      <c r="J1205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>370000</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L1205" t="n">
@@ -40395,17 +40201,11 @@
         <v>-3239.891631010001</v>
       </c>
       <c r="H1206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>371900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40434,17 +40234,11 @@
         <v>-3436.292931010001</v>
       </c>
       <c r="H1207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1207" t="n">
-        <v>370400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40481,7 +40275,7 @@
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1208" t="n">
@@ -40980,9 +40774,11 @@
         <v>-3649.79592288</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>373800</v>
+      </c>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41056,9 +40852,11 @@
         <v>-3450.017922880001</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>374300</v>
+      </c>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41796,9 +41594,11 @@
         <v>-3326.54448122</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>375100</v>
+      </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41870,9 +41670,11 @@
         <v>-3295.92288122</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>375000</v>
+      </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -41907,9 +41709,11 @@
         <v>-3286.86828122</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>375400</v>
+      </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
@@ -41944,9 +41748,11 @@
         <v>-3286.76908122</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>376000</v>
+      </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42018,9 +41824,11 @@
         <v>-3286.76908122</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>376900</v>
+      </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42055,9 +41863,11 @@
         <v>-3286.76908122</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>376900</v>
+      </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42092,9 +41902,11 @@
         <v>-3181.09348122</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>376900</v>
+      </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42166,9 +41978,11 @@
         <v>-3132.2594897</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>377600</v>
+      </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42240,9 +42054,11 @@
         <v>-3126.5285897</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>377900</v>
+      </c>
       <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42277,9 +42093,11 @@
         <v>-3161.8825897</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>378600</v>
+      </c>
       <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
